--- a/result/problem_1/results-overtime-sumtime.xlsx
+++ b/result/problem_1/results-overtime-sumtime.xlsx
@@ -513,13 +513,13 @@
         <v>670</v>
       </c>
       <c r="D2" t="n">
-        <v>317804</v>
+        <v>317279</v>
       </c>
       <c r="E2" t="n">
-        <v>178238</v>
+        <v>178126</v>
       </c>
       <c r="F2" t="n">
-        <v>551536</v>
+        <v>551241</v>
       </c>
       <c r="G2" t="n">
         <v>7159</v>
@@ -528,7 +528,7 @@
         <v>3778</v>
       </c>
       <c r="I2" t="n">
-        <v>573863</v>
+        <v>573262</v>
       </c>
       <c r="J2" t="n">
         <v>85316</v>
@@ -537,7 +537,7 @@
         <v>4400</v>
       </c>
       <c r="L2" t="n">
-        <v>583126</v>
+        <v>580714</v>
       </c>
       <c r="M2" t="n">
         <v>24540</v>
@@ -552,7 +552,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dmlf</t>
+          <t>dmsf</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -644,7 +644,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>mlf</t>
+          <t>msf</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -697,13 +697,13 @@
         <v>670</v>
       </c>
       <c r="D6" t="n">
-        <v>517988</v>
+        <v>415363</v>
       </c>
       <c r="E6" t="n">
-        <v>266639</v>
+        <v>213304</v>
       </c>
       <c r="F6" t="n">
-        <v>773229</v>
+        <v>651913</v>
       </c>
       <c r="G6" t="n">
         <v>7159</v>
@@ -712,19 +712,19 @@
         <v>3778</v>
       </c>
       <c r="I6" t="n">
-        <v>806785</v>
+        <v>702985</v>
       </c>
       <c r="J6" t="n">
-        <v>104623</v>
+        <v>103003</v>
       </c>
       <c r="K6" t="n">
         <v>4400</v>
       </c>
       <c r="L6" t="n">
-        <v>818882</v>
+        <v>750012</v>
       </c>
       <c r="M6" t="n">
-        <v>32815</v>
+        <v>26730</v>
       </c>
       <c r="N6" t="n">
         <v>5943</v>
